--- a/sonic/sonic.xlsx
+++ b/sonic/sonic.xlsx
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="20.4" outlineLevelRow="4"/>
